--- a/lab13/pomiary.xlsx
+++ b/lab13/pomiary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\School\AGH\Sem_5\Parallel\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603E7FE-E3A0-45D8-B9C0-E38FF9B72AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84664AAB-1E73-45C1-B7A3-A58D304BCE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="-18075" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calka" sheetId="1" r:id="rId1"/>
+    <sheet name="mat_vec" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Thread Count</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>Fektywność</t>
+  </si>
+  <si>
+    <t>Liczba procesów</t>
   </si>
 </sst>
 </file>
@@ -881,6 +885,782 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mat_vec!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3597000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11579299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2918999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9835000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3133000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B18-46E4-8871-1697B8BC621C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306595679"/>
+        <c:axId val="306594239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="306595679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306594239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="306594239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306595679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zmiana przyspieszenie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> i efektywośći</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przyspieszenie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mat_vec!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72195210418591804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9477853631258886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0985816493033762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1430817825058455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5254-4DDB-A315-EBB4965E6BF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fektywność</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mat_vec!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36097605209295902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48694634078147214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26232270616292203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1442611406615342E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5254-4DDB-A315-EBB4965E6BF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528018191"/>
+        <c:axId val="528016271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528018191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528016271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528016271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528018191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -961,6 +1741,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1478,6 +2338,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2054,6 +3946,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444176DD-9A7D-4799-8308-98A207588443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2840712-E0A9-47E7-A35C-F4817D191DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2335,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,6 +4416,121 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEDEFD-478A-4981-B1CF-4A0725663778}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8.3597000000000005E-2</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2/A2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.11579299999999999</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/B3</f>
+        <v>0.72195210418591804</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3/A3</f>
+        <v>0.36097605209295902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4.2918999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C6" si="1">$B$2/B4</f>
+        <v>1.9477853631258886</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.48694634078147214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3.9835000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.0985816493033762</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.26232270616292203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>7.3133000000000004E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.1430817825058455</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7.1442611406615342E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab13/pomiary.xlsx
+++ b/lab13/pomiary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\School\AGH\Sem_5\Parallel\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84664AAB-1E73-45C1-B7A3-A58D304BCE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFFCF47-754F-4ADA-9867-273BAF6380FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="-18075" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calka" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Thread Count</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Liczba procesów</t>
+  </si>
+  <si>
+    <t>Przyspieszenie idealne</t>
+  </si>
+  <si>
+    <t>Fektywność Idealna</t>
   </si>
 </sst>
 </file>
@@ -156,8 +162,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -183,9 +189,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>calka!$A$2:$A$6</c:f>
               <c:numCache>
@@ -208,8 +226,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>calka!$B$2:$B$6</c:f>
               <c:numCache>
@@ -232,8 +250,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-67BC-4C5C-9BF7-FAD0A43D7AEE}"/>
@@ -248,17 +266,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="306595679"/>
         <c:axId val="306594239"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="306595679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Liczba wątków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -298,11 +385,8 @@
         </c:txPr>
         <c:crossAx val="306594239"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="306594239"/>
         <c:scaling>
@@ -357,7 +441,7 @@
         </c:txPr>
         <c:crossAx val="306595679"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -477,11 +561,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Zmiana przyspieszenie</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> i efektywośći</a:t>
+              <a:t>Przyspieszenie</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -518,8 +598,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -536,7 +616,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -545,9 +625,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>calka!$A$2:$A$6</c:f>
               <c:numCache>
@@ -570,8 +662,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>calka!$C$2:$C$6</c:f>
               <c:numCache>
@@ -594,11 +686,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C34D-42C9-8CB9-58342DDF896F}"/>
+              <c16:uniqueId val="{00000000-07D2-40DA-BD19-7572303EFB99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -611,13 +703,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fektywność</c:v>
+                  <c:v>Przyspieszenie idealne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -626,9 +718,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>calka!$A$2:$A$6</c:f>
               <c:numCache>
@@ -651,8 +755,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>calka!$D$2:$D$6</c:f>
               <c:numCache>
@@ -662,24 +766,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94007539434368714</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70481778634504677</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5824023849498472</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30972126831501834</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C34D-42C9-8CB9-58342DDF896F}"/>
+              <c16:uniqueId val="{00000001-07D2-40DA-BD19-7572303EFB99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -691,17 +795,100 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="528018191"/>
-        <c:axId val="528016271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="528018191"/>
+        <c:axId val="108534224"/>
+        <c:axId val="108532784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="108534224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Liczba wątków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -711,8 +898,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -739,15 +926,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528016271"/>
+        <c:crossAx val="108532784"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="528016271"/>
+        <c:axId val="108532784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,8 +957,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -798,9 +988,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528018191"/>
+        <c:crossAx val="108534224"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -900,6 +1090,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efektywność</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -932,25 +1147,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mat_vec!$B$1</c:f>
+              <c:f>calka!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Czas [s]</c:v>
+                  <c:v>Fektywność</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -959,11 +1174,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:f>calka!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -984,35 +1211,128 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>mat_vec!$B$2:$B$6</c:f>
+              <c:f>calka!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.3597000000000005E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11579299999999999</c:v>
+                  <c:v>0.94007539434368714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2918999999999999E-2</c:v>
+                  <c:v>0.70481778634504677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9835000000000002E-2</c:v>
+                  <c:v>0.5824023849498472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3133000000000004E-2</c:v>
+                  <c:v>0.30972126831501834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8B18-46E4-8871-1697B8BC621C}"/>
+              <c16:uniqueId val="{00000000-B99F-4CE8-89A1-285753422C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calka!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fektywność Idealna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calka!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calka!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B99F-4CE8-89A1-285753422C8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1024,17 +1344,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="306595679"/>
-        <c:axId val="306594239"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="306595679"/>
+        <c:axId val="112085776"/>
+        <c:axId val="112079056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112085776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Liczba wątków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1044,8 +1433,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1072,15 +1461,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306594239"/>
+        <c:crossAx val="112079056"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="306594239"/>
+        <c:axId val="112079056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,8 +1492,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1131,9 +1523,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306595679"/>
+        <c:crossAx val="112085776"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1233,35 +1625,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Zmiana przyspieszenie</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> i efektywośći</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1294,19 +1657,19 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mat_vec!$C$1</c:f>
+              <c:f>mat_vec!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Przyspieszenie</c:v>
+                  <c:v>Czas [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1314,16 +1677,28 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>mat_vec!$A$2:$A$6</c:f>
               <c:numCache>
@@ -1346,116 +1721,35 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>mat_vec!$C$2:$C$6</c:f>
+              <c:f>mat_vec!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8.3597000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72195210418591804</c:v>
+                  <c:v>0.11579299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9477853631258886</c:v>
+                  <c:v>4.2918999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0985816493033762</c:v>
+                  <c:v>3.9835000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1430817825058455</c:v>
+                  <c:v>7.3133000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5254-4DDB-A315-EBB4965E6BF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mat_vec!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fektywność</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>mat_vec!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>mat_vec!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36097605209295902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48694634078147214</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26232270616292203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1442611406615342E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5254-4DDB-A315-EBB4965E6BF8}"/>
+              <c16:uniqueId val="{00000001-8B18-46E4-8871-1697B8BC621C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1467,17 +1761,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="528018191"/>
-        <c:axId val="528016271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="528018191"/>
+        <c:axId val="306595679"/>
+        <c:axId val="306594239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306595679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Liczba procesów</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1515,15 +1878,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528016271"/>
+        <c:crossAx val="306594239"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="528016271"/>
+        <c:axId val="306594239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,9 +1934,1093 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528018191"/>
+        <c:crossAx val="306595679"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Przyspieszenie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przyspieszenie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mat_vec!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72195210418591804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9477853631258886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0985816493033762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1430817825058455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F573-4836-9466-B71B73D571C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przyspieszenie idealne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mat_vec!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F573-4836-9466-B71B73D571C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109663120"/>
+        <c:axId val="109667440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="109663120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Liczba procesów</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109667440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109667440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109663120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efektywność</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fektywność</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mat_vec!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36097605209295902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48694634078147214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26232270616292203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1442611406615342E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBBB-418F-8280-DEA906E27549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mat_vec!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fektywność Idealna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mat_vec!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mat_vec!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBBB-418F-8280-DEA906E27549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243398016"/>
+        <c:axId val="243399936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243398016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Liczba procesów</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243399936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243399936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243398016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1821,6 +3265,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2338,7 +3862,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2365,8 +3889,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2446,11 +3970,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2461,11 +3980,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2477,7 +3991,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2497,9 +4011,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2512,10 +4023,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2555,22 +4066,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2675,8 +4187,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2808,19 +4320,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2834,6 +4347,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2854,7 +4378,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2881,8 +4405,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2962,11 +4486,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2977,11 +4496,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2993,7 +4507,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3013,9 +4527,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3028,10 +4539,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3071,22 +4582,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3191,8 +4703,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3324,19 +4836,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3350,6 +4863,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3866,6 +5390,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3925,23 +6481,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3">
+        <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253FEA21-0C72-434C-7D33-7A8A9C90AD9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A192721-B27D-7C41-4D94-08B0A8B30D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3954,6 +6510,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E05902-34D3-0B81-ACAF-1CF8C6B306C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4005,28 +6597,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2840712-E0A9-47E7-A35C-F4817D191DA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD25163-0CAF-FAAA-BEE5-EDD76019EC71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4035,6 +6625,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F757EEAD-C4EE-DDBE-7676-4E40E49AD5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4306,10 +6932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D6"/>
+      <selection activeCell="F1" activeCellId="1" sqref="D1:D6 F1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,9 +6944,10 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4331,10 +6958,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4346,11 +6979,18 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
         <f>C2/A2</f>
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4362,11 +7002,18 @@
         <v>1.8801507886873743</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">C3/A3</f>
+        <f t="shared" ref="D3:D6" si="0">A3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>C3/A3</f>
         <v>0.94007539434368714</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -4379,10 +7026,17 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>C4/A4</f>
         <v>0.70481778634504677</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -4395,10 +7049,17 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>C5/A5</f>
         <v>0.5824023849498472</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -4411,7 +7072,14 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f>C6/A6</f>
         <v>0.30972126831501834</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4423,10 +7091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEDEFD-478A-4981-B1CF-4A0725663778}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,7 +7103,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4446,10 +7114,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4461,11 +7135,18 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
         <f>C2/A2</f>
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4477,11 +7158,18 @@
         <v>0.72195210418591804</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">C3/A3</f>
+        <f t="shared" ref="D3:D6" si="0">A3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>C3/A3</f>
         <v>0.36097605209295902</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4494,10 +7182,17 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>C4/A4</f>
         <v>0.48694634078147214</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4510,10 +7205,17 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>C5/A5</f>
         <v>0.26232270616292203</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4526,11 +7228,19 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f>C6/A6</f>
         <v>7.1442611406615342E-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>